--- a/data/trans_orig/iP31A_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{227669E7-272F-45F6-BB3D-4E83363A9035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB94A2F-F3B2-4289-A26C-876DD86C4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B92B47F3-B51F-4D4B-BF47-5B714C0952A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3046AC0C-D9CE-470A-A75C-DFB4A256B694}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>40,7%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,106 +137,112 @@
     <t>69,01%</t>
   </si>
   <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
     <t>63,17%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>36,83%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -245,61 +251,61 @@
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>67,32%</t>
@@ -308,19 +314,16 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>36,16%</t>
@@ -329,25 +332,22 @@
     <t>32,68%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272F8B33-5FFF-482D-B7EA-2D93E05B7E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3354D424-F023-4DBD-A173-A1AA78736476}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1211,13 +1211,13 @@
         <v>111256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -1226,13 +1226,13 @@
         <v>247319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,13 +1247,13 @@
         <v>66415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -1262,13 +1262,13 @@
         <v>64857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>164</v>
@@ -1277,13 +1277,13 @@
         <v>131272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1351,13 +1351,13 @@
         <v>170621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>196</v>
@@ -1366,13 +1366,13 @@
         <v>147145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -1381,13 +1381,13 @@
         <v>317767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1402,13 @@
         <v>118373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -1417,13 +1417,13 @@
         <v>112293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -1432,13 +1432,13 @@
         <v>230666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1506,13 @@
         <v>452848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>580</v>
@@ -1521,13 +1521,13 @@
         <v>402002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>1187</v>
@@ -1536,13 +1536,13 @@
         <v>854850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>256485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>335</v>
@@ -1572,13 +1572,13 @@
         <v>238607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>668</v>

--- a/data/trans_orig/iP31A_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB94A2F-F3B2-4289-A26C-876DD86C4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADB47C4-F406-42C5-A262-F83640D1C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3046AC0C-D9CE-470A-A75C-DFB4A256B694}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F20923E6-BD54-4771-B054-D23BDD48749D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si tienen una alta adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3354D424-F023-4DBD-A173-A1AA78736476}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C326D9-7ECD-4BDA-BE66-0E6625BEDD97}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>25583</v>
+        <v>30068</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>30650</v>
+        <v>26442</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>56232</v>
+        <v>56510</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>17561</v>
+        <v>16427</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>15643</v>
+        <v>18843</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +970,7 @@
         <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>33204</v>
+        <v>35269</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>120581</v>
+        <v>112918</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I7" s="7">
-        <v>112951</v>
+        <v>123640</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1074,7 @@
         <v>369</v>
       </c>
       <c r="N7" s="7">
-        <v>233532</v>
+        <v>236559</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>54136</v>
+        <v>46381</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1101,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I8" s="7">
-        <v>45814</v>
+        <v>58319</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1125,7 @@
         <v>164</v>
       </c>
       <c r="N8" s="7">
-        <v>99950</v>
+        <v>104700</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>136063</v>
+        <v>106362</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1205,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>111256</v>
+        <v>141029</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,7 +1229,7 @@
         <v>312</v>
       </c>
       <c r="N10" s="7">
-        <v>247319</v>
+        <v>247392</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1241,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>66415</v>
+        <v>66710</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1256,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
-        <v>64857</v>
+        <v>71461</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1274,7 +1280,7 @@
         <v>164</v>
       </c>
       <c r="N11" s="7">
-        <v>131272</v>
+        <v>138171</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>170621</v>
+        <v>141714</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1360,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I13" s="7">
-        <v>147145</v>
+        <v>170126</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1378,7 +1384,7 @@
         <v>406</v>
       </c>
       <c r="N13" s="7">
-        <v>317767</v>
+        <v>311839</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1396,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7">
-        <v>118373</v>
+        <v>132553</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1411,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I14" s="7">
-        <v>112293</v>
+        <v>134873</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1429,7 +1435,7 @@
         <v>276</v>
       </c>
       <c r="N14" s="7">
-        <v>230666</v>
+        <v>267427</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1450,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="D16" s="7">
-        <v>452848</v>
+        <v>391062</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1515,34 +1521,34 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="I16" s="7">
-        <v>402002</v>
+        <v>461237</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1187</v>
       </c>
       <c r="N16" s="7">
-        <v>854850</v>
+        <v>852300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>335</v>
+      </c>
+      <c r="D17" s="7">
+        <v>262072</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>333</v>
       </c>
-      <c r="D17" s="7">
-        <v>256485</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>335</v>
-      </c>
       <c r="I17" s="7">
-        <v>238607</v>
+        <v>283496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>668</v>
       </c>
       <c r="N17" s="7">
-        <v>495092</v>
+        <v>545567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
